--- a/medicine/Sexualité et sexologie/Gorge_profonde_(pratique_sexuelle)/Gorge_profonde_(pratique_sexuelle).xlsx
+++ b/medicine/Sexualité et sexologie/Gorge_profonde_(pratique_sexuelle)/Gorge_profonde_(pratique_sexuelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une gorge profonde est une pratique sexuelle spécifique désignant une fellation au cours de laquelle le pénis de la personne recevant l'acte est introduit le plus loin possible dans la bouche puis dans la gorge de la personne pratiquant la fellation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une gorge profonde est une pratique sexuelle spécifique désignant une fellation au cours de laquelle le pénis de la personne recevant l'acte est introduit le plus loin possible dans la bouche puis dans la gorge de la personne pratiquant la fellation.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression fait référence à l'un des films majeurs du cinéma pornographique des années 1970, Gorge profonde[réf. nécessaire], dans lequel l'héroïne Linda Lovelace, dont le clitoris est dans la gorge, fait découvrir cette pratique à ses partenaires. L'actrice expliquera dans son autobiographie, huit ans plus tard, que cette pratique lui a été imposée, et sous la menace d'une arme à feu. Elle écrit : « Quand vous voyez le film Deep Throat, vous me voyez en plein viol[2],[3]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression fait référence à l'un des films majeurs du cinéma pornographique des années 1970, Gorge profonde[réf. nécessaire], dans lequel l'héroïne Linda Lovelace, dont le clitoris est dans la gorge, fait découvrir cette pratique à ses partenaires. L'actrice expliquera dans son autobiographie, huit ans plus tard, que cette pratique lui a été imposée, et sous la menace d'une arme à feu. Elle écrit : « Quand vous voyez le film Deep Throat, vous me voyez en plein viol,. »
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette technique nécessite un entrainement particulier afin d'éviter tout vomissement ou étouffement. Elle peut mener à l'éjaculation dans la gorge, voire l'œsophage de la personne pratiquant l'acte. 
 Le pénis doit être bien aligné pour entrer dans la gorge de la personne pratiquant. La légère pression du pénis sur le pharynx provoque un réflexe de vomissement qui peut être contrôlé.
